--- a/Excel/SoulRingConfig.xlsx
+++ b/Excel/SoulRingConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>10级解锁献祭光环</t>
   </si>
   <si>
-    <t>造成敌方10%全体攻击伤害</t>
+    <t>造成敌方5%全体攻击伤害</t>
   </si>
   <si>
     <t>万年</t>
@@ -70,7 +70,7 @@
     <t>10级解锁回复光环</t>
   </si>
   <si>
-    <t>回复友方10%全体攻击生命</t>
+    <t>回复友方5%全体攻击生命</t>
   </si>
   <si>
     <t>十万年</t>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -120,6 +120,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -133,6 +161,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,14 +213,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,7 +221,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +229,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -208,21 +244,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -237,28 +258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,13 +279,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,24 +345,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -339,18 +393,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -363,36 +405,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -411,24 +429,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -442,12 +448,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,6 +470,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,21 +517,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,148 +573,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -728,52 +728,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/Excel/SoulRingConfig.xlsx
+++ b/Excel/SoulRingConfig.xlsx
@@ -37,7 +37,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>十年</t>
+    <t>十年魂环</t>
   </si>
   <si>
     <t>10级解锁守护光环</t>
@@ -46,7 +46,7 @@
     <t>友方最终伤害减少10%</t>
   </si>
   <si>
-    <t>百年</t>
+    <t>百年魂环</t>
   </si>
   <si>
     <t>10级解锁虚弱光环</t>
@@ -55,7 +55,7 @@
     <t>敌方所受伤害增加10%</t>
   </si>
   <si>
-    <t>千年</t>
+    <t>千年魂环</t>
   </si>
   <si>
     <t>10级解锁献祭光环</t>
@@ -64,7 +64,7 @@
     <t>造成敌方5%全体攻击伤害</t>
   </si>
   <si>
-    <t>万年</t>
+    <t>万年魂环</t>
   </si>
   <si>
     <t>10级解锁回复光环</t>
@@ -73,19 +73,19 @@
     <t>回复友方5%全体攻击生命</t>
   </si>
   <si>
-    <t>十万年</t>
+    <t>十万年魂环</t>
   </si>
   <si>
     <t>未开放</t>
   </si>
   <si>
-    <t>百万年</t>
-  </si>
-  <si>
-    <t>千万年</t>
-  </si>
-  <si>
-    <t>亿年年</t>
+    <t>百万年魂环</t>
+  </si>
+  <si>
+    <t>千万年魂环</t>
+  </si>
+  <si>
+    <t>亿年魂环</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/Excel/SoulRingConfig.xlsx
+++ b/Excel/SoulRingConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11820"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -43,34 +43,34 @@
     <t>10级解锁守护光环</t>
   </si>
   <si>
-    <t>友方最终伤害减少10%</t>
+    <t>友方所受伤害减少10%</t>
   </si>
   <si>
     <t>百年魂环</t>
   </si>
   <si>
-    <t>10级解锁虚弱光环</t>
-  </si>
-  <si>
-    <t>敌方所受伤害增加10%</t>
+    <t>10级解锁强击光环</t>
+  </si>
+  <si>
+    <t>友方最终伤害增加10%</t>
   </si>
   <si>
     <t>千年魂环</t>
   </si>
   <si>
-    <t>10级解锁献祭光环</t>
-  </si>
-  <si>
-    <t>造成敌方5%全体攻击伤害</t>
+    <t>10级解锁暴击光环</t>
+  </si>
+  <si>
+    <t>友方暴击概率增加10%</t>
   </si>
   <si>
     <t>万年魂环</t>
   </si>
   <si>
-    <t>10级解锁回复光环</t>
-  </si>
-  <si>
-    <t>回复友方5%全体攻击生命</t>
+    <t>10级解锁爆伤光环</t>
+  </si>
+  <si>
+    <t>友方暴击伤害增加30%</t>
   </si>
   <si>
     <t>十万年魂环</t>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -120,34 +120,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -161,14 +133,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,6 +177,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -258,7 +237,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,49 +279,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,121 +417,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,21 +470,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,6 +502,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,148 +573,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -728,52 +728,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/Excel/SoulRingConfig.xlsx
+++ b/Excel/SoulRingConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -76,10 +76,16 @@
     <t>十万年魂环</t>
   </si>
   <si>
+    <t>10级解锁祝福光环</t>
+  </si>
+  <si>
+    <t>友方最终攻击增加10%</t>
+  </si>
+  <si>
+    <t>百万年魂环</t>
+  </si>
+  <si>
     <t>未开放</t>
-  </si>
-  <si>
-    <t>百万年魂环</t>
   </si>
   <si>
     <t>千万年魂环</t>
@@ -1047,7 +1053,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1184,7 +1190,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="27" customHeight="1" spans="3:6">
@@ -1192,13 +1198,13 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="27" customHeight="1" spans="3:6">
@@ -1206,13 +1212,13 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="27" customHeight="1" spans="3:6">
@@ -1220,13 +1226,13 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
         <v>23</v>
       </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="3:6">

--- a/Excel/SoulRingConfig.xlsx
+++ b/Excel/SoulRingConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+  <si>
+    <t>#</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -1053,7 +1056,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1071,56 +1074,62 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:2">
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="27" customHeight="1" spans="3:6">
@@ -1128,13 +1137,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="27" customHeight="1" spans="3:6">
@@ -1142,13 +1151,13 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="27" customHeight="1" spans="3:6">
@@ -1156,13 +1165,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="27" customHeight="1" spans="3:6">
@@ -1170,13 +1179,13 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="27" customHeight="1" spans="3:6">
@@ -1184,13 +1193,13 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="27" customHeight="1" spans="3:6">
@@ -1198,13 +1207,13 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="27" customHeight="1" spans="3:6">
@@ -1212,13 +1221,13 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="27" customHeight="1" spans="3:6">
@@ -1226,13 +1235,13 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="3:6">

--- a/Excel/SoulRingConfig.xlsx
+++ b/Excel/SoulRingConfig.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -88,10 +101,16 @@
     <t>百万年魂环</t>
   </si>
   <si>
+    <t>10级解锁闪避光环</t>
+  </si>
+  <si>
+    <t>友方闪避概率增加10%</t>
+  </si>
+  <si>
+    <t>千万年魂环</t>
+  </si>
+  <si>
     <t>未开放</t>
-  </si>
-  <si>
-    <t>千万年魂环</t>
   </si>
   <si>
     <t>亿年魂环</t>
@@ -100,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1056,7 +1075,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1213,7 +1232,7 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="27" customHeight="1" spans="3:6">
@@ -1221,13 +1240,13 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="27" customHeight="1" spans="3:6">
@@ -1235,13 +1254,13 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="3:6">

--- a/Excel/SoulRingConfig.xlsx
+++ b/Excel/SoulRingConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -110,10 +110,16 @@
     <t>千万年魂环</t>
   </si>
   <si>
+    <t>10级解锁减伤光环</t>
+  </si>
+  <si>
+    <t>友方j减伤倍率增加10%</t>
+  </si>
+  <si>
+    <t>亿年魂环</t>
+  </si>
+  <si>
     <t>未开放</t>
-  </si>
-  <si>
-    <t>亿年魂环</t>
   </si>
 </sst>
 </file>
@@ -1074,8 +1080,8 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1246,7 +1252,7 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="27" customHeight="1" spans="3:6">
@@ -1254,13 +1260,13 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="3:6">

--- a/Excel/SoulRingConfig.xlsx
+++ b/Excel/SoulRingConfig.xlsx
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
-  <si>
-    <t>#</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -38,12 +35,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>LevelMemo</t>
-  </si>
-  <si>
-    <t>AurasMemo</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -56,70 +47,25 @@
     <t>十年魂环</t>
   </si>
   <si>
-    <t>10级解锁守护光环</t>
-  </si>
-  <si>
-    <t>友方所受伤害减少10%</t>
-  </si>
-  <si>
     <t>百年魂环</t>
   </si>
   <si>
-    <t>10级解锁强击光环</t>
-  </si>
-  <si>
-    <t>友方最终伤害增加10%</t>
-  </si>
-  <si>
     <t>千年魂环</t>
   </si>
   <si>
-    <t>10级解锁暴击光环</t>
-  </si>
-  <si>
-    <t>友方暴击概率增加10%</t>
-  </si>
-  <si>
     <t>万年魂环</t>
   </si>
   <si>
-    <t>10级解锁爆伤光环</t>
-  </si>
-  <si>
-    <t>友方暴击伤害增加30%</t>
-  </si>
-  <si>
     <t>十万年魂环</t>
   </si>
   <si>
-    <t>10级解锁祝福光环</t>
-  </si>
-  <si>
-    <t>友方最终攻击增加10%</t>
-  </si>
-  <si>
     <t>百万年魂环</t>
   </si>
   <si>
-    <t>10级解锁闪避光环</t>
-  </si>
-  <si>
-    <t>友方闪避概率增加10%</t>
-  </si>
-  <si>
     <t>千万年魂环</t>
   </si>
   <si>
-    <t>10级解锁减伤光环</t>
-  </si>
-  <si>
-    <t>友方j减伤倍率增加10%</t>
-  </si>
-  <si>
     <t>亿年魂环</t>
-  </si>
-  <si>
-    <t>未开放</t>
   </si>
 </sst>
 </file>
@@ -1078,224 +1024,142 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
-    <col min="7" max="16368" width="9" style="2"/>
+    <col min="5" max="16366" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="27" customHeight="1" spans="3:6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="27" customHeight="1" spans="3:4">
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="27" customHeight="1" spans="3:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="27" customHeight="1" spans="3:4">
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="27" customHeight="1" spans="3:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="27" customHeight="1" spans="3:4">
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="27" customHeight="1" spans="3:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="27" customHeight="1" spans="3:4">
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="27" customHeight="1" spans="3:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="27" customHeight="1" spans="3:4">
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="27" customHeight="1" spans="3:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="27" customHeight="1" spans="3:4">
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="27" customHeight="1" spans="3:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="27" customHeight="1" spans="3:4">
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="27" customHeight="1" spans="3:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="27" customHeight="1" spans="3:4">
       <c r="C13">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:4">
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:6">
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:4">
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:6">
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:4">
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:6">
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:4">
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 D4 E4 F4 D5 E5 F5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 D4 D5 C3:C5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
